--- a/biology/Botanique/Runyon_Canyon_Park/Runyon_Canyon_Park.xlsx
+++ b/biology/Botanique/Runyon_Canyon_Park/Runyon_Canyon_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Runyon Canyon Park est un jardin public d'une superficie de 65 hectares, situé dans le quartier de Hollywood à Los Angeles. Il est géré par le Los Angeles Department of Recreation and Parks.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Runyon Canyon Park a été acheté en 1984 par la Santa Monica Mountains Conservancy (en) et la ville de Los Angeles. 
 </t>
@@ -543,9 +557,11 @@
           <t>Lieux de Runyon Canyon Park</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc dispose d'un important réseau de chemins de randonnées[1]. Le point culminant du parc, connu sous le nom d'Indian Rock[2], s'élève à 402 mètres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc dispose d'un important réseau de chemins de randonnées. Le point culminant du parc, connu sous le nom d'Indian Rock, s'élève à 402 mètres.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Criminalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sécurité du parc est assurée par la LAPD des secteurs de Hollywood et de North Hollywood. La zone du parc connaît peu de crimes[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sécurité du parc est assurée par la LAPD des secteurs de Hollywood et de North Hollywood. La zone du parc connaît peu de crimes.
 </t>
         </is>
       </c>
